--- a/emx/dist/rd3_portal_release.xlsx
+++ b/emx/dist/rd3_portal_release.xlsx
@@ -30,22 +30,22 @@
     <t>Freezes</t>
   </si>
   <si>
-    <t>RD3 portal, containing data submitted by CNAG</t>
-  </si>
-  <si>
-    <t>Intermediate tables for RD3 releases (v1.0.0, 2021-09-16)</t>
-  </si>
-  <si>
-    <t>freeze2</t>
-  </si>
-  <si>
-    <t>Freeze 2</t>
-  </si>
-  <si>
-    <t>Staging table for Freeze 2 data</t>
-  </si>
-  <si>
-    <t>rd3_portal_release_freeze2</t>
+    <t>RD3 portal, containing data submitted by CNAG (v1.1.0, 2021-10-11)</t>
+  </si>
+  <si>
+    <t>Intermediate tables for RD3 releases (v1.1.0, 2022-01-31)</t>
+  </si>
+  <si>
+    <t>novelwgs</t>
+  </si>
+  <si>
+    <t>Novel WGS</t>
+  </si>
+  <si>
+    <t>Staging table for Novel WGS data (2022-01-31)</t>
+  </si>
+  <si>
+    <t>rd3_portal_release_novelwgs</t>
   </si>
   <si>
     <t>id</t>
